--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value91.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value91.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.9996755187890256</v>
+        <v>4.926332950592041</v>
       </c>
       <c r="B1">
-        <v>1.186114897316306</v>
+        <v>3.47041392326355</v>
       </c>
       <c r="C1">
-        <v>1.560917172676776</v>
+        <v>2.62143087387085</v>
       </c>
       <c r="D1">
-        <v>3.748774944072654</v>
+        <v>2.041930437088013</v>
       </c>
       <c r="E1">
-        <v>4.124560379746629</v>
+        <v>2.314959526062012</v>
       </c>
     </row>
   </sheetData>
